--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="126">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -320,19 +320,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ruby</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>=</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>objective-c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>c++</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -355,28 +343,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>行末コメント</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウマツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>範囲コメント</t>
-    <rPh sb="0" eb="2">
-      <t>ハンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sh</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -405,13 +371,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>if分</t>
-    <rPh sb="2" eb="3">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>if x == 1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -449,40 +408,6 @@
   </si>
   <si>
     <t>?:</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>?:分</t>
-    <rPh sb="2" eb="3">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>case分</t>
-    <rPh sb="4" eb="5">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>unless分</t>
-    <rPh sb="6" eb="7">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>if分の反対にunless分がある。ただし、elsifのようなelsunlessはない</t>
-    <rPh sb="2" eb="3">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ハンタイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ブン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -559,27 +484,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ruby</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>rem</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>//</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/*  */</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>=begin end</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -782,14 +687,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>if else else if elseif elsif</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>switch case when</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>各種言語を使う場合、どの言語にどんなことが使えるのか毎回よく悩んでいたので、それを解消するために作成</t>
     <rPh sb="0" eb="2">
       <t>カクシュ</t>
@@ -821,6 +718,191 @@
     <rPh sb="48" eb="50">
       <t>サクセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インデント indent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>indent block</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>python</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>programing language</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ruby</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>objective-c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c++</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if unless</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if statement else else if elseif elsif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>switch statement case when</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修飾子</t>
+    <rPh sb="0" eb="3">
+      <t>シュウショクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>perl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文 statement</t>
+    <rPh sb="0" eb="1">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>loop statement while foreach each　times</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>loop while foreach each　times</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rem comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=begin
+comment
+end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/*
+comment
+*/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"""
+comment
+"""
+'''
+comment
+'''</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=pod
+comment
+=end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数行 範囲 コメント</t>
+    <rPh sb="0" eb="3">
+      <t>フクスウギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行末 コメント</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウマツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abc # comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abc; // comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abc; //</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abc; # comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ifの反対にunlessがある。ただし、elsifのようなelsunlessはない</t>
+    <rPh sb="3" eb="5">
+      <t>ハンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if elsif else unless</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if elsif else</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unless elsif else</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>case when else</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -864,9 +946,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1196,12 +1284,12 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -1211,17 +1299,17 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1235,7 +1323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1280,112 +1368,202 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C21"/>
+  <dimension ref="A2:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1396,10 +1574,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K24"/>
+  <dimension ref="A2:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <pane ySplit="1350" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1407,7 +1586,7 @@
     <col min="1" max="6" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1418,7 +1597,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1443,8 +1622,14 @@
       <c r="K3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1455,25 +1640,38 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
         <v>31</v>
       </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G4" t="str">
+        <f>dictionary!$B35</f>
+        <v>ruby</v>
+      </c>
+      <c r="H4" t="str">
+        <f>dictionary!$B36</f>
+        <v>objective-c</v>
+      </c>
+      <c r="I4" t="str">
+        <f>dictionary!$B37</f>
+        <v>c++</v>
+      </c>
+      <c r="J4" t="str">
+        <f>dictionary!$B38</f>
+        <v>sh</v>
+      </c>
+      <c r="K4" t="str">
+        <f>dictionary!$B39</f>
+        <v>bat</v>
+      </c>
+      <c r="L4" t="str">
+        <f>dictionary!$B40</f>
+        <v>python</v>
+      </c>
+      <c r="M4" t="str">
+        <f>dictionary!$B41</f>
+        <v>perl</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
         <f>dictionary!B3</f>
         <v xml:space="preserve">コーディングルール cording rule </v>
@@ -1483,17 +1681,17 @@
         <v>=</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" t="str">
         <f>dictionary!B4</f>
         <v>オブジェクト指向 objective</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" ref="E7:E24" si="0">E$4</f>
+        <f t="shared" ref="E7:E34" si="0">E$4</f>
         <v>=</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" t="str">
         <f>dictionary!B5</f>
         <v>数値</v>
@@ -1503,7 +1701,7 @@
         <v>=</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
         <f>dictionary!B6</f>
         <v>変数</v>
@@ -1513,7 +1711,7 @@
         <v>=</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
         <f>dictionary!B7</f>
         <v>条件 条件判定 分岐 if else else if elseif elsif elif switch case when</v>
@@ -1523,217 +1721,467 @@
         <v>=</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="L10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B11" t="str">
         <f>dictionary!C8</f>
-        <v>if else else if elseif elsif</v>
+        <v>文 statement</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B12" t="str">
-        <f>dictionary!C9</f>
-        <v>switch case when</v>
+        <v>36</v>
+      </c>
+      <c r="L11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C12" t="str">
+        <f>dictionary!D9</f>
+        <v>if statement else else if elseif elsif</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B13" t="str">
-        <f>dictionary!C10</f>
-        <v>?:</v>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C13" t="str">
+        <f>dictionary!D10</f>
+        <v>switch statement case when</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" t="str">
-        <f>dictionary!B11</f>
-        <v>繰り返し loop while foreach each　times</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C14" t="str">
+        <f>dictionary!D11</f>
+        <v>?:</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" t="str">
-        <f>dictionary!B12</f>
-        <v>例外 exception</v>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B15" t="str">
+        <f>dictionary!C12</f>
+        <v>修飾子</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" t="str">
-        <f>dictionary!B13</f>
-        <v>コメント comment</v>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C16" t="str">
+        <f>dictionary!D13</f>
+        <v>if unless</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J16" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B17" t="str">
-        <f>dictionary!C14</f>
-        <v>行末コメント</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" t="str">
+        <f>dictionary!B14</f>
+        <v>繰り返し loop while foreach each　times</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
       </c>
-      <c r="G17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B18" t="str">
         <f>dictionary!C15</f>
-        <v>範囲コメント</v>
+        <v>文 statement</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" t="str">
-        <f>dictionary!B16</f>
-        <v>入出力 入力 出力 標準入力 標準出力 標準エラー出力 エラー出力 input output stdin stdout stderr</v>
+        <v>36</v>
+      </c>
+      <c r="J18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C19" t="str">
+        <f>dictionary!D16</f>
+        <v>loop statement while foreach each　times</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B20" t="str">
         <f>dictionary!C17</f>
-        <v>ファイル file</v>
+        <v>修飾子</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B21" t="str">
-        <f>dictionary!C18</f>
-        <v>ソケット 通信 socket</v>
+      <c r="G20" t="s">
+        <v>89</v>
+      </c>
+      <c r="M20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C21" t="str">
+        <f>dictionary!D18</f>
+        <v>loop while foreach each　times</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B22" t="str">
-        <f>dictionary!C19</f>
-        <v>http uri url</v>
+      <c r="G21" t="s">
+        <v>89</v>
+      </c>
+      <c r="M21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" t="str">
+        <f>dictionary!B19</f>
+        <v>例外 exception</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" t="str">
         <f>dictionary!B20</f>
-        <v>言語 マルチ言語 langurage multi langurages</v>
+        <v>コメント comment</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B24" t="str">
         <f>dictionary!C21</f>
+        <v>コメント</v>
+      </c>
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B25" t="str">
+        <f>dictionary!C22</f>
+        <v>行末 コメント</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>=</v>
+      </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" t="s">
+        <v>113</v>
+      </c>
+      <c r="L25" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B26" t="str">
+        <f>dictionary!C23</f>
+        <v>複数行 範囲 コメント</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>=</v>
+      </c>
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" t="s">
+        <v>89</v>
+      </c>
+      <c r="L26" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" t="str">
+        <f>dictionary!B24</f>
+        <v>入出力 入力 出力 標準入力 標準出力 標準エラー出力 エラー出力 input output stdin stdout stderr</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>=</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B28" t="str">
+        <f>dictionary!C25</f>
+        <v>ファイル file</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>=</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B29" t="str">
+        <f>dictionary!C26</f>
+        <v>ソケット 通信 socket</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>=</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B30" t="str">
+        <f>dictionary!C27</f>
+        <v>http uri url</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>=</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31" t="str">
+        <f>dictionary!B28</f>
+        <v>インデント indent</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B32" t="str">
+        <f>dictionary!C29</f>
+        <v>indent block</v>
+      </c>
+      <c r="G32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I32" t="s">
+        <v>89</v>
+      </c>
+      <c r="J32" t="s">
+        <v>89</v>
+      </c>
+      <c r="K32" t="s">
+        <v>89</v>
+      </c>
+      <c r="L32" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" t="str">
+        <f>dictionary!B30</f>
+        <v>言語 マルチ言語 langurage multi langurages</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>=</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B34" t="str">
+        <f>dictionary!C31</f>
         <v>日本語 japan japanese</v>
       </c>
-      <c r="E24" t="str">
+      <c r="E34" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
       </c>
@@ -1746,13 +2194,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G33"/>
+  <dimension ref="A2:H43"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="5" width="2.625" customWidth="1"/>
   </cols>
@@ -1820,141 +2268,245 @@
         <v>条件 条件判定 分岐 if else else if elseif elsif elif switch case when</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D11" t="str">
+        <f>dictionary!C8</f>
+        <v>文 statement</v>
+      </c>
+    </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>72</v>
+      <c r="A12" t="str">
+        <f>dictionary!B35</f>
+        <v>ruby</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>33</v>
+      <c r="A13" t="str">
+        <f>dictionary!B36</f>
+        <v>objective-c</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>34</v>
+      <c r="A14" t="str">
+        <f>dictionary!B37</f>
+        <v>c++</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>41</v>
+      <c r="A15" t="str">
+        <f>dictionary!B38</f>
+        <v>sh</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C18" t="str">
-        <f>dictionary!B11</f>
+      <c r="A16" t="str">
+        <f>dictionary!B39</f>
+        <v>bat</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" t="str">
+        <f>dictionary!B40</f>
+        <v>python</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" t="str">
+        <f>dictionary!B41</f>
+        <v>perl</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D20" t="str">
+        <f>dictionary!C12</f>
+        <v>修飾子</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C22" t="str">
+        <f>dictionary!B14</f>
         <v>繰り返し loop while foreach each　times</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C19" t="str">
-        <f>dictionary!B12</f>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D23" t="str">
+        <f>dictionary!C15</f>
+        <v>文 statement</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D24" t="str">
+        <f>dictionary!C17</f>
+        <v>修飾子</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C25" t="str">
+        <f>dictionary!B19</f>
         <v>例外 exception</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C20" t="str">
-        <f>dictionary!B13</f>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C26" t="str">
+        <f>dictionary!B20</f>
         <v>コメント comment</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F21" t="str">
-        <f>dictionary!C14</f>
-        <v>行末コメント</v>
-      </c>
-      <c r="G21" t="str">
-        <f>dictionary!C15</f>
-        <v>範囲コメント</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C28" t="str">
-        <f>dictionary!B16</f>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F27" t="str">
+        <f>dictionary!$C21</f>
+        <v>コメント</v>
+      </c>
+      <c r="G27" t="str">
+        <f>dictionary!$C22</f>
+        <v>行末 コメント</v>
+      </c>
+      <c r="H27" t="str">
+        <f>dictionary!$C23</f>
+        <v>複数行 範囲 コメント</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A28" t="str">
+        <f>dictionary!B35</f>
+        <v>ruby</v>
+      </c>
+      <c r="F28" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" t="s">
+        <v>117</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A29" t="str">
+        <f>dictionary!B36</f>
+        <v>objective-c</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A30" t="str">
+        <f>dictionary!B37</f>
+        <v>c++</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" t="str">
+        <f>dictionary!B38</f>
+        <v>sh</v>
+      </c>
+      <c r="F31" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" t="str">
+        <f>dictionary!B39</f>
+        <v>bat</v>
+      </c>
+      <c r="F32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+      <c r="A33" t="str">
+        <f>dictionary!B40</f>
+        <v>python</v>
+      </c>
+      <c r="F33" t="s">
+        <v>106</v>
+      </c>
+      <c r="G33" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A34" t="str">
+        <f>dictionary!B41</f>
+        <v>perl</v>
+      </c>
+      <c r="F34" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" t="s">
+        <v>120</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C36" t="str">
+        <f>dictionary!B24</f>
         <v>入出力 入力 出力 標準入力 標準出力 標準エラー出力 エラー出力 input output stdin stdout stderr</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D29" t="str">
-        <f>dictionary!C17</f>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D37" t="str">
+        <f>dictionary!C25</f>
         <v>ファイル file</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D30" t="str">
-        <f>dictionary!C18</f>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D38" t="str">
+        <f>dictionary!C26</f>
         <v>ソケット 通信 socket</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D31" t="str">
-        <f>dictionary!C19</f>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D39" t="str">
+        <f>dictionary!C27</f>
         <v>http uri url</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C32" t="str">
-        <f>dictionary!B20</f>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C40" t="str">
+        <f>dictionary!B28</f>
+        <v>インデント indent</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D41" t="str">
+        <f>dictionary!C29</f>
+        <v>indent block</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C42" t="str">
+        <f>dictionary!B30</f>
         <v>言語 マルチ言語 langurage multi langurages</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D33" t="str">
-        <f>dictionary!C21</f>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D43" t="str">
+        <f>dictionary!C31</f>
         <v>日本語 japan japanese</v>
       </c>
     </row>
@@ -1966,122 +2518,193 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B20"/>
+  <dimension ref="A2:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="str">
         <f>dictionary!B3</f>
         <v xml:space="preserve">コーディングルール cording rule </v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="str">
         <f>dictionary!B4</f>
         <v>オブジェクト指向 objective</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="str">
         <f>dictionary!B5</f>
         <v>数値</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="str">
         <f>dictionary!B6</f>
         <v>変数</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
         <f>dictionary!B7</f>
         <v>条件 条件判定 分岐 if else else if elseif elsif elif switch case when</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="str">
-        <f>dictionary!B11</f>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B7" t="str">
+        <f>dictionary!C8</f>
+        <v>文 statement</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C8" t="str">
+        <f>dictionary!D9</f>
+        <v>if statement else else if elseif elsif</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C9" t="str">
+        <f>dictionary!D10</f>
+        <v>switch statement case when</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C10" t="str">
+        <f>dictionary!D11</f>
+        <v>?:</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B11" t="str">
+        <f>dictionary!C12</f>
+        <v>修飾子</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C12" t="str">
+        <f>dictionary!D13</f>
+        <v>if unless</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="str">
+        <f>dictionary!B14</f>
         <v>繰り返し loop while foreach each　times</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="str">
-        <f>dictionary!B12</f>
-        <v>例外 exception</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" t="str">
-        <f>dictionary!B13</f>
-        <v>コメント comment</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B13" t="str">
-        <f>dictionary!C14</f>
-        <v>行末コメント</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B14" t="str">
         <f>dictionary!C15</f>
-        <v>範囲コメント</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" t="str">
-        <f>dictionary!B16</f>
-        <v>入出力 入力 出力 標準入力 標準出力 標準エラー出力 エラー出力 input output stdin stdout stderr</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+        <v>文 statement</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C15" t="str">
+        <f>dictionary!D16</f>
+        <v>loop statement while foreach each　times</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B16" t="str">
         <f>dictionary!C17</f>
-        <v>ファイル file</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B17" t="str">
-        <f>dictionary!C18</f>
-        <v>ソケット 通信 socket</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B18" t="str">
-        <f>dictionary!C19</f>
-        <v>http uri url</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+        <v>修飾子</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C17" t="str">
+        <f>dictionary!D18</f>
+        <v>loop while foreach each　times</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="str">
+        <f>dictionary!B19</f>
+        <v>例外 exception</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="str">
         <f>dictionary!B20</f>
+        <v>コメント comment</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B20" t="str">
+        <f>dictionary!C22</f>
+        <v>行末 コメント</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B21" t="str">
+        <f>dictionary!C23</f>
+        <v>複数行 範囲 コメント</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="str">
+        <f>dictionary!B24</f>
+        <v>入出力 入力 出力 標準入力 標準出力 標準エラー出力 エラー出力 input output stdin stdout stderr</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B23" t="str">
+        <f>dictionary!C25</f>
+        <v>ファイル file</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B24" t="str">
+        <f>dictionary!C26</f>
+        <v>ソケット 通信 socket</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B25" t="str">
+        <f>dictionary!C27</f>
+        <v>http uri url</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="str">
+        <f>dictionary!B28</f>
+        <v>インデント indent</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B27" t="str">
+        <f>dictionary!C29</f>
+        <v>indent block</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="str">
+        <f>dictionary!B30</f>
         <v>言語 マルチ言語 langurage multi langurages</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B20" t="str">
-        <f>dictionary!C21</f>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B29" t="str">
+        <f>dictionary!C31</f>
         <v>日本語 japan japanese</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H82"/>
+  <dimension ref="A2:H96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2097,7 +2720,7 @@
         <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -2131,384 +2754,459 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
-        <v>47</v>
+      <c r="C8" t="str">
+        <f>dictionary!C8</f>
+        <v>文 statement</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D10" t="s">
-        <v>67</v>
+      <c r="E10" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D11" t="s">
-        <v>79</v>
+      <c r="F11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E12" t="s">
-        <v>63</v>
+      <c r="F12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F14" t="s">
-        <v>88</v>
+      <c r="G14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F15" t="s">
+      <c r="H15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="H17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="H19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="H20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="H21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="H22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="H24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="H25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="G26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="H27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="E28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="F29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="F30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="F31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="5:8" x14ac:dyDescent="0.15">
+      <c r="G32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="H33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="H34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="H35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="G36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="H37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="H38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="H39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="H40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="H41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="G42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="H43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="E45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="E46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="E47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D57" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="E29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="G31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="G32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="G33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="F34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="G35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="G36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="G37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="G38" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="G39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="F40" t="s">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="E58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="E59" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="G41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="D43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="D44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="D45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="E46" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="F47" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="F48" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F49" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F50" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F51" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F52" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F53" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F54" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D56" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D57" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E58" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B60" t="str">
-        <f>dictionary!B11</f>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="F60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C61" t="str">
+        <f>dictionary!C12</f>
+        <v>修飾子</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D62" t="str">
+        <f>dictionary!D13</f>
+        <v>if unless</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B65" t="str">
+        <f>dictionary!B14</f>
         <v>繰り返し loop while foreach each　times</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B61" t="str">
-        <f>dictionary!B12</f>
-        <v>例外 exception</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B62" t="str">
-        <f>dictionary!B13</f>
-        <v>コメント comment</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C63" t="str">
-        <f>dictionary!C14</f>
-        <v>行末コメント</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D64" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E65" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F66" t="s">
-        <v>37</v>
+      <c r="C66" t="str">
+        <f>dictionary!C15</f>
+        <v>文 statement</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F67" t="s">
-        <v>38</v>
+      <c r="D67" t="str">
+        <f>dictionary!D16</f>
+        <v>loop statement while foreach each　times</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C68" t="str">
-        <f>dictionary!C15</f>
-        <v>範囲コメント</v>
+        <f>dictionary!C17</f>
+        <v>修飾子</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D69" s="1" t="s">
-        <v>52</v>
+      <c r="D69" t="str">
+        <f>dictionary!D18</f>
+        <v>loop while foreach each　times</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D70" s="1"/>
-      <c r="E70" t="s">
-        <v>36</v>
+      <c r="B70" t="str">
+        <f>dictionary!B19</f>
+        <v>例外 exception</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D71" s="1"/>
-      <c r="F71" s="1" t="s">
-        <v>53</v>
+      <c r="B71" t="str">
+        <f>dictionary!B20</f>
+        <v>コメント comment</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D72" s="1"/>
-      <c r="F72" t="s">
-        <v>54</v>
+      <c r="C72" t="str">
+        <f>dictionary!C21</f>
+        <v>コメント</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D73" s="1"/>
-      <c r="F73" t="s">
-        <v>55</v>
+      <c r="D73" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D74" s="1"/>
-      <c r="F74" t="s">
-        <v>56</v>
+      <c r="E74" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D75" s="1"/>
       <c r="F75" t="s">
-        <v>49</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C76" t="str">
+        <f>dictionary!C22</f>
+        <v>行末 コメント</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B77" t="str">
-        <f>dictionary!B16</f>
-        <v>入出力 入力 出力 標準入力 標準出力 標準エラー出力 エラー出力 input output stdin stdout stderr</v>
+      <c r="D77" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C78" t="str">
-        <f>dictionary!C17</f>
-        <v>ファイル file</v>
+      <c r="E78" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C79" t="str">
-        <f>dictionary!C18</f>
-        <v>ソケット 通信 socket</v>
+      <c r="F79" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C80" t="str">
-        <f>dictionary!C19</f>
+        <f>dictionary!C23</f>
+        <v>複数行 範囲 コメント</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D81" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D82" s="1"/>
+      <c r="E82" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D83" s="1"/>
+      <c r="F83" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D84" s="1"/>
+      <c r="F84" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D85" s="1"/>
+      <c r="F85" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D86" s="1"/>
+      <c r="F86" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D87" s="1"/>
+      <c r="F87" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B89" t="str">
+        <f>dictionary!B24</f>
+        <v>入出力 入力 出力 標準入力 標準出力 標準エラー出力 エラー出力 input output stdin stdout stderr</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C90" t="str">
+        <f>dictionary!C25</f>
+        <v>ファイル file</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C91" t="str">
+        <f>dictionary!C26</f>
+        <v>ソケット 通信 socket</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C92" t="str">
+        <f>dictionary!C27</f>
         <v>http uri url</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B81" t="str">
-        <f>dictionary!B20</f>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B93" t="str">
+        <f>dictionary!B28</f>
+        <v>インデント indent</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C94" t="str">
+        <f>dictionary!C29</f>
+        <v>indent block</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B95" t="str">
+        <f>dictionary!B30</f>
         <v>言語 マルチ言語 langurage multi langurages</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C82" t="str">
-        <f>dictionary!C21</f>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C96" t="str">
+        <f>dictionary!C31</f>
         <v>日本語 japan japanese</v>
       </c>
     </row>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="223">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -903,6 +903,677 @@
   </si>
   <si>
     <t>case when else</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理の後ろにif条件を記述</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：1：if</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p "x is 1" if x == 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：2：unless</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p "x is not 1" unless x == 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if statement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>switch statement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unless</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if x == 1
+  p "x is 1"
+elsif x == 2
+  p "x is 2"
+else
+  p "x is not 1 and 2"
+end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>case x
+when 1
+  p "x is 1"
+else
+  p "x is not 1"
+end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例外</t>
+    <rPh sb="0" eb="2">
+      <t>レイガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>catch(:exit) do
+  p "do here"
+  throw :exit
+  p "don't do here"
+end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>復帰</t>
+    <rPh sb="0" eb="2">
+      <t>フッキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>raise ex rescue p "error occure"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：1：begin rescue ensure</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>begin処理rescue例外処理ensure後処理で記述</t>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>アトショリ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>begin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  raise ex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rescue =&gt; ex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>begin
+  raise ex
+rescue =&gt; ex
+  p "error occure"
+ensure
+  p "after method"
+end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  p "error occure"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ensure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  p "after method"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理rescue例外処理で記述</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：1：rescue</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後処理</t>
+    <rPh sb="0" eb="3">
+      <t>アトショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やりなおし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やりなおし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後処理</t>
+    <rPh sb="0" eb="3">
+      <t>アトショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>begin
+  raise ex
+rescue =&gt; ex
+  p "error occure"
+end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>times</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ensureで後処理を記述可能</t>
+    <rPh sb="7" eb="10">
+      <t>アトショリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rescue中にretryでbeginからやりなおすことが可能</t>
+    <rPh sb="6" eb="7">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>begin
+  x = 1 / x
+rescue =&gt; ex
+  p "x is 0"
+  x = 1
+  retry
+end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>begin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  x = 1 / x</t>
+  </si>
+  <si>
+    <t>rescue =&gt; ex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p "x is 0"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  x = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  retry</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>構文</t>
+    <rPh sb="0" eb="2">
+      <t>コウブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>times</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定回数繰り返す</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：1：times</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x.times do</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  p "do times method"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：2：timesブロック付</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x.times do |i|</t>
+  </si>
+  <si>
+    <t>for</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>while</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>until</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>each</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>loop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッド method</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定範囲繰り返す</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>for i in 1..5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p "do i count"</t>
+  </si>
+  <si>
+    <t>例：2：for配列</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：1：for数字</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>スウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  p "do i"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>for i in ["a", "b", "c"]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：1：while</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>while x &lt; 5 do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p "x is less than 5"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p "do ", i, " times method"</t>
+  </si>
+  <si>
+    <t>条件中繰り返す</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件以外の中繰り返す</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：1：until</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>until x &lt; 5 do</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  p "x is more than 5"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>until</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>each</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>loop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>["a", "b", "c"].each do |i|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p "do ", I, "\n"</t>
+  </si>
+  <si>
+    <t>例：1：each</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクトから取り出して繰り返す</t>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：1：loop</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  p "do loop method"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>loop do</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>繰り返し、breakを使って繰り返しを中止する。</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チュウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>breakで繰り返し中止、nextで次の繰り返し、redoで再度繰り返し</t>
+    <rPh sb="6" eb="7">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チュウシ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>do 繰り返し処理 endか{繰り返し処理}で記述</t>
+    <rPh sb="3" eb="4">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数行の場合do endで、1行の場合{}で記述することが推奨</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.times do
+  p "do count"
+end
+x.times do |i|
+  p "do ", i, " times method"
+end
+# next, redo, break TODO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>for i in 1..5
+  p "do ", i, " count"
+end
+# next, redo, break TODO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>while x &lt; 5 do
+  p "x is less than 5"
+end
+# next, redo, break TODO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>until x &lt; 5 do
+  p "x is more than 5"
+end
+# next, redo, break TODO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>["a", "b", "c"].each do |i|
+  p "do ", I, "\n"
+end
+# next, redo, break TODO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>loop do
+  p "do loop method"
+end
+# next, redo, break TODO</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1368,10 +2039,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D41"/>
+  <dimension ref="A2:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1467,102 +2138,122 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>9</v>
+      <c r="C20" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
-        <v>3</v>
+      <c r="C30" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B41" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1574,11 +2265,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M34"/>
+  <dimension ref="A2:M39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1350" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+      <pane ySplit="1350" topLeftCell="A7" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1643,31 +2334,31 @@
         <v>31</v>
       </c>
       <c r="G4" t="str">
-        <f>dictionary!$B35</f>
+        <f>dictionary!$B39</f>
         <v>ruby</v>
       </c>
       <c r="H4" t="str">
-        <f>dictionary!$B36</f>
+        <f>dictionary!$B40</f>
         <v>objective-c</v>
       </c>
       <c r="I4" t="str">
-        <f>dictionary!$B37</f>
+        <f>dictionary!$B41</f>
         <v>c++</v>
       </c>
       <c r="J4" t="str">
-        <f>dictionary!$B38</f>
+        <f>dictionary!$B42</f>
         <v>sh</v>
       </c>
       <c r="K4" t="str">
-        <f>dictionary!$B39</f>
+        <f>dictionary!$B43</f>
         <v>bat</v>
       </c>
       <c r="L4" t="str">
-        <f>dictionary!$B40</f>
+        <f>dictionary!$B44</f>
         <v>python</v>
       </c>
       <c r="M4" t="str">
-        <f>dictionary!$B41</f>
+        <f>dictionary!$B45</f>
         <v>perl</v>
       </c>
     </row>
@@ -1687,7 +2378,7 @@
         <v>オブジェクト指向 objective</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" ref="E7:E34" si="0">E$4</f>
+        <f t="shared" ref="E7:E39" si="0">E$4</f>
         <v>=</v>
       </c>
     </row>
@@ -1845,6 +2536,12 @@
         <f t="shared" si="0"/>
         <v>=</v>
       </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C16" t="str">
@@ -1935,25 +2632,21 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B20" t="str">
-        <f>dictionary!C17</f>
-        <v>修飾子</v>
+      <c r="B20" t="s">
+        <v>186</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
       </c>
       <c r="G20" t="s">
-        <v>89</v>
-      </c>
-      <c r="M20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="C21" t="str">
-        <f>dictionary!D18</f>
-        <v>loop while foreach each　times</v>
+      <c r="B21" t="str">
+        <f>dictionary!C17</f>
+        <v>修飾子</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
@@ -1967,19 +2660,25 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" t="str">
-        <f>dictionary!B19</f>
-        <v>例外 exception</v>
+      <c r="C22" t="str">
+        <f>dictionary!D18</f>
+        <v>loop while foreach each　times</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
       </c>
+      <c r="G22" t="s">
+        <v>89</v>
+      </c>
+      <c r="M22" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" t="str">
-        <f>dictionary!B20</f>
-        <v>コメント comment</v>
+        <f>dictionary!B19</f>
+        <v>例外 exception</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
@@ -1995,22 +2694,16 @@
         <v>36</v>
       </c>
       <c r="J23" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="K23" t="s">
-        <v>36</v>
-      </c>
-      <c r="L23" t="s">
-        <v>36</v>
-      </c>
-      <c r="M23" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B24" t="str">
-        <f>dictionary!C21</f>
-        <v>コメント</v>
+        <f>dictionary!C20</f>
+        <v>文 statement</v>
       </c>
       <c r="G24" t="s">
         <v>36</v>
@@ -2022,190 +2715,276 @@
         <v>36</v>
       </c>
       <c r="J24" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="K24" t="s">
-        <v>36</v>
-      </c>
-      <c r="L24" t="s">
-        <v>36</v>
-      </c>
-      <c r="M24" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B25" t="str">
-        <f>dictionary!C22</f>
-        <v>行末 コメント</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>=</v>
+        <f>dictionary!C21</f>
+        <v>後処理</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" t="s">
-        <v>36</v>
-      </c>
-      <c r="I25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" t="s">
-        <v>36</v>
-      </c>
-      <c r="K25" t="s">
-        <v>113</v>
-      </c>
-      <c r="L25" t="s">
-        <v>36</v>
-      </c>
-      <c r="M25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B26" t="str">
+        <f>dictionary!C22</f>
+        <v>やりなおし</v>
+      </c>
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B27" t="str">
         <f>dictionary!C23</f>
-        <v>複数行 範囲 コメント</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>=</v>
-      </c>
-      <c r="G26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" t="s">
-        <v>36</v>
-      </c>
-      <c r="I26" t="s">
-        <v>36</v>
-      </c>
-      <c r="K26" t="s">
-        <v>89</v>
-      </c>
-      <c r="L26" t="s">
-        <v>36</v>
-      </c>
-      <c r="M26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" t="str">
+        <v>修飾子</v>
+      </c>
+      <c r="G27" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" t="s">
+        <v>137</v>
+      </c>
+      <c r="K27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28" t="str">
         <f>dictionary!B24</f>
-        <v>入出力 入力 出力 標準入力 標準出力 標準エラー出力 エラー出力 input output stdin stdout stderr</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>=</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B28" t="str">
-        <f>dictionary!C25</f>
-        <v>ファイル file</v>
+        <v>コメント comment</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
       </c>
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28" t="s">
+        <v>36</v>
+      </c>
+      <c r="K28" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" t="s">
+        <v>36</v>
+      </c>
+      <c r="M28" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B29" t="str">
-        <f>dictionary!C26</f>
-        <v>ソケット 通信 socket</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>=</v>
+        <f>dictionary!C25</f>
+        <v>コメント</v>
+      </c>
+      <c r="G29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B30" t="str">
-        <f>dictionary!C27</f>
-        <v>http uri url</v>
+        <f>dictionary!C26</f>
+        <v>行末 コメント</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
       </c>
+      <c r="G30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30" t="s">
+        <v>113</v>
+      </c>
+      <c r="L30" t="s">
+        <v>36</v>
+      </c>
+      <c r="M30" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" t="str">
+      <c r="B31" t="str">
+        <f>dictionary!C27</f>
+        <v>複数行 範囲 コメント</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>=</v>
+      </c>
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K31" t="s">
+        <v>89</v>
+      </c>
+      <c r="L31" t="s">
+        <v>36</v>
+      </c>
+      <c r="M31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32" t="str">
         <f>dictionary!B28</f>
-        <v>インデント indent</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B32" t="str">
+        <v>入出力 入力 出力 標準入力 標準出力 標準エラー出力 エラー出力 input output stdin stdout stderr</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>=</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B33" t="str">
         <f>dictionary!C29</f>
-        <v>indent block</v>
-      </c>
-      <c r="G32" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" t="s">
-        <v>89</v>
-      </c>
-      <c r="I32" t="s">
-        <v>89</v>
-      </c>
-      <c r="J32" t="s">
-        <v>89</v>
-      </c>
-      <c r="K32" t="s">
-        <v>89</v>
-      </c>
-      <c r="L32" t="s">
-        <v>36</v>
-      </c>
-      <c r="M32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" t="str">
-        <f>dictionary!B30</f>
-        <v>言語 マルチ言語 langurage multi langurages</v>
+        <v>ファイル file</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B34" t="str">
-        <f>dictionary!C31</f>
-        <v>日本語 japan japanese</v>
+        <f>dictionary!C30</f>
+        <v>ソケット 通信 socket</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
         <v>=</v>
       </c>
     </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B35" t="str">
+        <f>dictionary!C31</f>
+        <v>http uri url</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>=</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A36" t="str">
+        <f>dictionary!B32</f>
+        <v>インデント indent</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B37" t="str">
+        <f>dictionary!C33</f>
+        <v>indent block</v>
+      </c>
+      <c r="G37" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37" t="s">
+        <v>89</v>
+      </c>
+      <c r="I37" t="s">
+        <v>89</v>
+      </c>
+      <c r="J37" t="s">
+        <v>89</v>
+      </c>
+      <c r="K37" t="s">
+        <v>89</v>
+      </c>
+      <c r="L37" t="s">
+        <v>36</v>
+      </c>
+      <c r="M37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A38" t="str">
+        <f>dictionary!B34</f>
+        <v>言語 マルチ言語 langurage multi langurages</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>=</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B39" t="str">
+        <f>dictionary!C35</f>
+        <v>日本語 japan japanese</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>=</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H43"/>
+  <dimension ref="A2:K81"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="5" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2216,7 +2995,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C3">
         <v>1</v>
       </c>
@@ -2227,7 +3006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>28</v>
       </c>
@@ -2238,275 +3017,555 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C6" t="str">
         <f>dictionary!B3</f>
         <v xml:space="preserve">コーディングルール cording rule </v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C7" t="str">
         <f>dictionary!B4</f>
         <v>オブジェクト指向 objective</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C8" t="str">
         <f>dictionary!B5</f>
         <v>数値</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C9" t="str">
         <f>dictionary!B6</f>
         <v>変数</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C10" t="str">
         <f>dictionary!B7</f>
         <v>条件 条件判定 分岐 if else else if elseif elsif elif switch case when</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D11" t="str">
         <f>dictionary!C8</f>
         <v>文 statement</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" t="str">
-        <f>dictionary!B35</f>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="108" x14ac:dyDescent="0.15">
+      <c r="A13" t="str">
+        <f>dictionary!B39</f>
         <v>ruby</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" t="str">
-        <f>dictionary!B36</f>
+      <c r="F13" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" t="str">
+        <f>dictionary!B40</f>
         <v>objective-c</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" t="str">
-        <f>dictionary!B37</f>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" t="str">
+        <f>dictionary!B41</f>
         <v>c++</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" t="str">
-        <f>dictionary!B38</f>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" t="str">
+        <f>dictionary!B42</f>
         <v>sh</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" t="str">
-        <f>dictionary!B39</f>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" t="str">
+        <f>dictionary!B43</f>
         <v>bat</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" t="str">
-        <f>dictionary!B40</f>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" t="str">
+        <f>dictionary!B44</f>
         <v>python</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" t="str">
-        <f>dictionary!B41</f>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" t="str">
+        <f>dictionary!B45</f>
         <v>perl</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D20" t="str">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D21" t="str">
         <f>dictionary!C12</f>
         <v>修飾子</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C22" t="str">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F22" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" t="str">
+        <f>dictionary!B39</f>
+        <v>ruby</v>
+      </c>
+      <c r="F23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" t="str">
+        <f>dictionary!B40</f>
+        <v>objective-c</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" t="str">
+        <f>dictionary!B41</f>
+        <v>c++</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" t="str">
+        <f>dictionary!B42</f>
+        <v>sh</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" t="str">
+        <f>dictionary!B43</f>
+        <v>bat</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" t="str">
+        <f>dictionary!B44</f>
+        <v>python</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" t="str">
+        <f>dictionary!B45</f>
+        <v>perl</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C31" t="str">
         <f>dictionary!B14</f>
         <v>繰り返し loop while foreach each　times</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D23" t="str">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D32" t="str">
         <f>dictionary!C15</f>
         <v>文 statement</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D24" t="str">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F33" t="s">
+        <v>160</v>
+      </c>
+      <c r="G33" t="s">
+        <v>181</v>
+      </c>
+      <c r="H33" t="s">
+        <v>182</v>
+      </c>
+      <c r="I33" t="s">
+        <v>203</v>
+      </c>
+      <c r="J33" t="s">
+        <v>204</v>
+      </c>
+      <c r="K33" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A34" t="str">
+        <f>dictionary!B39</f>
+        <v>ruby</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35" t="str">
+        <f>dictionary!B40</f>
+        <v>objective-c</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36" t="str">
+        <f>dictionary!B41</f>
+        <v>c++</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37" t="str">
+        <f>dictionary!B42</f>
+        <v>sh</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38" t="str">
+        <f>dictionary!B43</f>
+        <v>bat</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A39" t="str">
+        <f>dictionary!B44</f>
+        <v>python</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40" t="str">
+        <f>dictionary!B45</f>
+        <v>perl</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D42" t="str">
         <f>dictionary!C17</f>
         <v>修飾子</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C25" t="str">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C43" t="str">
         <f>dictionary!B19</f>
         <v>例外 exception</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C26" t="str">
-        <f>dictionary!B20</f>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D44" t="str">
+        <f>dictionary!C20</f>
+        <v>文 statement</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F45" t="s">
+        <v>138</v>
+      </c>
+      <c r="G45" t="s">
+        <v>158</v>
+      </c>
+      <c r="H45" t="s">
+        <v>157</v>
+      </c>
+      <c r="I45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A46" t="str">
+        <f>dictionary!B39</f>
+        <v>ruby</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A47" t="str">
+        <f>dictionary!B40</f>
+        <v>objective-c</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A48" t="str">
+        <f>dictionary!B41</f>
+        <v>c++</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" t="str">
+        <f>dictionary!B42</f>
+        <v>sh</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" t="str">
+        <f>dictionary!B43</f>
+        <v>bat</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" t="str">
+        <f>dictionary!B44</f>
+        <v>python</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" t="str">
+        <f>dictionary!B45</f>
+        <v>perl</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D54" t="str">
+        <f>dictionary!C23</f>
+        <v>修飾子</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F55" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" t="str">
+        <f>dictionary!B39</f>
+        <v>ruby</v>
+      </c>
+      <c r="F56" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" t="str">
+        <f>dictionary!B40</f>
+        <v>objective-c</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" t="str">
+        <f>dictionary!B41</f>
+        <v>c++</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" t="str">
+        <f>dictionary!B42</f>
+        <v>sh</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" t="str">
+        <f>dictionary!B43</f>
+        <v>bat</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" t="str">
+        <f>dictionary!B44</f>
+        <v>python</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" t="str">
+        <f>dictionary!B45</f>
+        <v>perl</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C64" t="str">
+        <f>dictionary!B24</f>
         <v>コメント comment</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F27" t="str">
-        <f>dictionary!$C21</f>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F65" t="str">
+        <f>dictionary!$C25</f>
         <v>コメント</v>
       </c>
-      <c r="G27" t="str">
-        <f>dictionary!$C22</f>
+      <c r="G65" t="str">
+        <f>dictionary!$C26</f>
         <v>行末 コメント</v>
       </c>
-      <c r="H27" t="str">
-        <f>dictionary!$C23</f>
+      <c r="H65" t="str">
+        <f>dictionary!$C27</f>
         <v>複数行 範囲 コメント</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A28" t="str">
-        <f>dictionary!B35</f>
+    <row r="66" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A66" t="str">
+        <f>dictionary!B39</f>
         <v>ruby</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F66" t="s">
         <v>106</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G66" t="s">
         <v>117</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H66" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A29" t="str">
-        <f>dictionary!B36</f>
+    <row r="67" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A67" t="str">
+        <f>dictionary!B40</f>
         <v>objective-c</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H67" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A30" t="str">
-        <f>dictionary!B37</f>
+    <row r="68" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A68" t="str">
+        <f>dictionary!B41</f>
         <v>c++</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H68" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" t="str">
-        <f>dictionary!B38</f>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" t="str">
+        <f>dictionary!B42</f>
         <v>sh</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F69" t="s">
         <v>106</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G69" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" t="str">
-        <f>dictionary!B39</f>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" t="str">
+        <f>dictionary!B43</f>
         <v>bat</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F70" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="81" x14ac:dyDescent="0.15">
-      <c r="A33" t="str">
-        <f>dictionary!B40</f>
+    <row r="71" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+      <c r="A71" t="str">
+        <f>dictionary!B44</f>
         <v>python</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F71" t="s">
         <v>106</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G71" t="s">
         <v>117</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H71" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A34" t="str">
-        <f>dictionary!B41</f>
+    <row r="72" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A72" t="str">
+        <f>dictionary!B45</f>
         <v>perl</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F72" t="s">
         <v>106</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G72" t="s">
         <v>120</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H72" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C36" t="str">
-        <f>dictionary!B24</f>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C74" t="str">
+        <f>dictionary!B28</f>
         <v>入出力 入力 出力 標準入力 標準出力 標準エラー出力 エラー出力 input output stdin stdout stderr</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D37" t="str">
-        <f>dictionary!C25</f>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D75" t="str">
+        <f>dictionary!C29</f>
         <v>ファイル file</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D38" t="str">
-        <f>dictionary!C26</f>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D76" t="str">
+        <f>dictionary!C30</f>
         <v>ソケット 通信 socket</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D39" t="str">
-        <f>dictionary!C27</f>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D77" t="str">
+        <f>dictionary!C31</f>
         <v>http uri url</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C40" t="str">
-        <f>dictionary!B28</f>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C78" t="str">
+        <f>dictionary!B32</f>
         <v>インデント indent</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D41" t="str">
-        <f>dictionary!C29</f>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D79" t="str">
+        <f>dictionary!C33</f>
         <v>indent block</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C42" t="str">
-        <f>dictionary!B30</f>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C80" t="str">
+        <f>dictionary!B34</f>
         <v>言語 マルチ言語 langurage multi langurages</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D43" t="str">
-        <f>dictionary!C31</f>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D81" t="str">
+        <f>dictionary!C35</f>
         <v>日本語 japan japanese</v>
       </c>
     </row>
@@ -2518,9 +3577,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C29"/>
+  <dimension ref="A2:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -2627,68 +3688,92 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" t="str">
-        <f>dictionary!B20</f>
-        <v>コメント comment</v>
+      <c r="B19" t="str">
+        <f>dictionary!C20</f>
+        <v>文 statement</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B20" t="str">
-        <f>dictionary!C22</f>
-        <v>行末 コメント</v>
+        <f>dictionary!C21</f>
+        <v>後処理</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B21" t="str">
+        <f>dictionary!C22</f>
+        <v>やりなおし</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B22" t="str">
         <f>dictionary!C23</f>
-        <v>複数行 範囲 コメント</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" t="str">
+        <v>修飾子</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="str">
         <f>dictionary!B24</f>
-        <v>入出力 入力 出力 標準入力 標準出力 標準エラー出力 エラー出力 input output stdin stdout stderr</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B23" t="str">
-        <f>dictionary!C25</f>
-        <v>ファイル file</v>
+        <v>コメント comment</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B24" t="str">
         <f>dictionary!C26</f>
-        <v>ソケット 通信 socket</v>
+        <v>行末 コメント</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B25" t="str">
         <f>dictionary!C27</f>
-        <v>http uri url</v>
+        <v>複数行 範囲 コメント</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="str">
         <f>dictionary!B28</f>
-        <v>インデント indent</v>
+        <v>入出力 入力 出力 標準入力 標準出力 標準エラー出力 エラー出力 input output stdin stdout stderr</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B27" t="str">
         <f>dictionary!C29</f>
-        <v>indent block</v>
+        <v>ファイル file</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" t="str">
-        <f>dictionary!B30</f>
-        <v>言語 マルチ言語 langurage multi langurages</v>
+      <c r="B28" t="str">
+        <f>dictionary!C30</f>
+        <v>ソケット 通信 socket</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29" t="str">
         <f>dictionary!C31</f>
+        <v>http uri url</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="str">
+        <f>dictionary!B32</f>
+        <v>インデント indent</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B31" t="str">
+        <f>dictionary!C33</f>
+        <v>indent block</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="str">
+        <f>dictionary!B34</f>
+        <v>言語 マルチ言語 langurage multi langurages</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" t="str">
+        <f>dictionary!C35</f>
         <v>日本語 japan japanese</v>
       </c>
     </row>
@@ -2701,10 +3786,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H96"/>
+  <dimension ref="A2:H191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="G133" sqref="G133:G135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3031,187 +4116,662 @@
         <v>if unless</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B65" t="str">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="E63" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="E64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E66" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F67" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B69" t="str">
         <f>dictionary!B14</f>
         <v>繰り返し loop while foreach each　times</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C66" t="str">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C70" t="str">
         <f>dictionary!C15</f>
         <v>文 statement</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D67" t="str">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D71" t="str">
         <f>dictionary!D16</f>
         <v>loop statement while foreach each　times</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C68" t="str">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D72" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E73" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F74" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F75" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F76" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F77" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F78" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G79" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G80" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="81" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G81" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F82" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="83" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G83" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="84" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G84" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="85" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E86" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="87" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F87" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="88" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F88" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="89" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F89" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="90" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F90" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="91" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F91" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="92" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G92" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G93" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="94" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G94" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="95" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E95" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="96" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F96" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="97" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F97" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="98" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F98" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="99" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F99" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="100" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F100" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G101" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G102" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="103" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G103" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="104" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D104" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="105" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E105" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="106" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F106" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="107" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F107" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="108" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F108" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F109" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="110" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F110" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="111" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G111" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="112" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G112" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="113" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G113" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="114" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F114" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="115" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G115" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="116" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G116" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="117" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G117" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E118" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="119" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F119" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="120" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F120" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="121" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F121" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="122" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F122" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="123" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F123" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="124" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G124" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="125" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G125" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="126" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G126" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E127" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="128" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="F128" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F129" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F130" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F131" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F132" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G133" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G134" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C137" t="str">
         <f>dictionary!C17</f>
         <v>修飾子</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D69" t="str">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D138" t="str">
         <f>dictionary!D18</f>
         <v>loop while foreach each　times</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B70" t="str">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B139" t="str">
         <f>dictionary!B19</f>
         <v>例外 exception</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B71" t="str">
-        <f>dictionary!B20</f>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C140" t="str">
+        <f>dictionary!C20</f>
+        <v>文 statement</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D141" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D142" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E143" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E144" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="145" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E145" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="146" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E146" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="147" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E147" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E148" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="149" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E149" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="150" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C150" t="str">
+        <f>dictionary!C21</f>
+        <v>後処理</v>
+      </c>
+    </row>
+    <row r="151" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D151" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="152" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C152" t="str">
+        <f>dictionary!C22</f>
+        <v>やりなおし</v>
+      </c>
+    </row>
+    <row r="153" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D153" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="154" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E154" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="155" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E155" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="156" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E156" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="157" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E157" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="158" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E158" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="159" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E159" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="160" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E160" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C161" t="str">
+        <f>dictionary!C23</f>
+        <v>修飾子</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D162" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D163" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E164" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B166" t="str">
+        <f>dictionary!B24</f>
         <v>コメント comment</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C72" t="str">
-        <f>dictionary!C21</f>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C167" t="str">
+        <f>dictionary!C25</f>
         <v>コメント</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D73" t="s">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D168" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E74" t="s">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E169" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F75" t="s">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F170" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C76" t="str">
-        <f>dictionary!C22</f>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C171" t="str">
+        <f>dictionary!C26</f>
         <v>行末 コメント</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D77" t="s">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D172" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E78" t="s">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E173" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F79" t="s">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F174" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C80" t="str">
-        <f>dictionary!C23</f>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C175" t="str">
+        <f>dictionary!C27</f>
         <v>複数行 範囲 コメント</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D81" s="1" t="s">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D176" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D82" s="1"/>
-      <c r="E82" t="s">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D177" s="1"/>
+      <c r="E177" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D83" s="1"/>
-      <c r="F83" s="1" t="s">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D178" s="1"/>
+      <c r="F178" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D84" s="1"/>
-      <c r="F84" t="s">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D179" s="1"/>
+      <c r="F179" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D85" s="1"/>
-      <c r="F85" t="s">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D180" s="1"/>
+      <c r="F180" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D86" s="1"/>
-      <c r="F86" t="s">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D181" s="1"/>
+      <c r="F181" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D87" s="1"/>
-      <c r="F87" t="s">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D182" s="1"/>
+      <c r="F182" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B89" t="str">
-        <f>dictionary!B24</f>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B184" t="str">
+        <f>dictionary!B28</f>
         <v>入出力 入力 出力 標準入力 標準出力 標準エラー出力 エラー出力 input output stdin stdout stderr</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C90" t="str">
-        <f>dictionary!C25</f>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C185" t="str">
+        <f>dictionary!C29</f>
         <v>ファイル file</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C91" t="str">
-        <f>dictionary!C26</f>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C186" t="str">
+        <f>dictionary!C30</f>
         <v>ソケット 通信 socket</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C92" t="str">
-        <f>dictionary!C27</f>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C187" t="str">
+        <f>dictionary!C31</f>
         <v>http uri url</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B93" t="str">
-        <f>dictionary!B28</f>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B188" t="str">
+        <f>dictionary!B32</f>
         <v>インデント indent</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C94" t="str">
-        <f>dictionary!C29</f>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C189" t="str">
+        <f>dictionary!C33</f>
         <v>indent block</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B95" t="str">
-        <f>dictionary!B30</f>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B190" t="str">
+        <f>dictionary!B34</f>
         <v>言語 マルチ言語 langurage multi langurages</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C96" t="str">
-        <f>dictionary!C31</f>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C191" t="str">
+        <f>dictionary!C35</f>
         <v>日本語 japan japanese</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="227">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -957,6 +957,625 @@
   </si>
   <si>
     <t>unless</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>case x
+when 1
+  p "x is 1"
+else
+  p "x is not 1"
+end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例外</t>
+    <rPh sb="0" eb="2">
+      <t>レイガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>catch(:exit) do
+  p "do here"
+  throw :exit
+  p "don't do here"
+end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>復帰</t>
+    <rPh sb="0" eb="2">
+      <t>フッキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>raise ex rescue p "error occure"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：1：begin rescue ensure</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>begin処理rescue例外処理ensure後処理で記述</t>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>アトショリ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>begin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  raise ex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rescue =&gt; ex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>begin
+  raise ex
+rescue =&gt; ex
+  p "error occure"
+ensure
+  p "after method"
+end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  p "error occure"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ensure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  p "after method"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理rescue例外処理で記述</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：1：rescue</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後処理</t>
+    <rPh sb="0" eb="3">
+      <t>アトショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やりなおし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やりなおし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後処理</t>
+    <rPh sb="0" eb="3">
+      <t>アトショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>begin
+  raise ex
+rescue =&gt; ex
+  p "error occure"
+end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>times</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ensureで後処理を記述可能</t>
+    <rPh sb="7" eb="10">
+      <t>アトショリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rescue中にretryでbeginからやりなおすことが可能</t>
+    <rPh sb="6" eb="7">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>begin
+  x = 1 / x
+rescue =&gt; ex
+  p "x is 0"
+  x = 1
+  retry
+end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>begin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  x = 1 / x</t>
+  </si>
+  <si>
+    <t>rescue =&gt; ex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p "x is 0"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  x = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  retry</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>構文</t>
+    <rPh sb="0" eb="2">
+      <t>コウブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>times</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定回数繰り返す</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：1：times</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x.times do</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  p "do times method"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：2：timesブロック付</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x.times do |i|</t>
+  </si>
+  <si>
+    <t>for</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>while</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>until</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>each</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>loop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッド method</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定範囲繰り返す</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>for i in 1..5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p "do i count"</t>
+  </si>
+  <si>
+    <t>例：2：for配列</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：1：for数字</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>スウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  p "do i"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>for i in ["a", "b", "c"]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：1：while</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>while x &lt; 5 do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p "x is less than 5"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p "do ", i, " times method"</t>
+  </si>
+  <si>
+    <t>条件中繰り返す</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件以外の中繰り返す</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：1：until</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>until x &lt; 5 do</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  p "x is more than 5"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>until</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>each</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>loop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>["a", "b", "c"].each do |i|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p "do ", I, "\n"</t>
+  </si>
+  <si>
+    <t>例：1：each</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクトから取り出して繰り返す</t>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：1：loop</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  p "do loop method"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>loop do</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>繰り返し、breakを使って繰り返しを中止する。</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チュウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>breakで繰り返し中止、nextで次の繰り返し、redoで再度繰り返し</t>
+    <rPh sb="6" eb="7">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チュウシ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>do 繰り返し処理 endか{繰り返し処理}で記述</t>
+    <rPh sb="3" eb="4">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数行の場合do endで、1行の場合{}で記述することが推奨</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.times do
+  p "do count"
+end
+x.times do |i|
+  p "do ", i, " times method"
+end
+# next, redo, break TODO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>for i in 1..5
+  p "do ", i, " count"
+end
+# next, redo, break TODO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>while x &lt; 5 do
+  p "x is less than 5"
+end
+# next, redo, break TODO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>until x &lt; 5 do
+  p "x is more than 5"
+end
+# next, redo, break TODO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>["a", "b", "c"].each do |i|
+  p "do ", I, "\n"
+end
+# next, redo, break TODO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>loop do
+  p "do loop method"
+end
+# next, redo, break TODO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vbs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vbs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>' comment</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -970,610 +1589,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>case x
-when 1
-  p "x is 1"
+    <t>if x = 1 then
+  echo "x is 1"
+elseif x = 2
+  echo "x is 1"
 else
-  p "x is not 1"
+  echo "x is 1"
 end</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>例外</t>
-    <rPh sb="0" eb="2">
-      <t>レイガイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>その他</t>
-    <rPh sb="2" eb="3">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>catch(:exit) do
-  p "do here"
-  throw :exit
-  p "don't do here"
-end</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>復帰</t>
-    <rPh sb="0" eb="2">
-      <t>フッキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>raise ex rescue p "error occure"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>例：1：begin rescue ensure</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>begin処理rescue例外処理ensure後処理で記述</t>
-    <rPh sb="5" eb="7">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>アトショリ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>キジュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>begin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  raise ex</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>rescue =&gt; ex</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>begin
-  raise ex
-rescue =&gt; ex
-  p "error occure"
-ensure
-  p "after method"
-end</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  p "error occure"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ensure</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>end</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  p "after method"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>処理rescue例外処理で記述</t>
-    <rPh sb="0" eb="2">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キジュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>例：1：rescue</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>後処理</t>
-    <rPh sb="0" eb="3">
-      <t>アトショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>やりなおし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>やりなおし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>後処理</t>
-    <rPh sb="0" eb="3">
-      <t>アトショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>begin
-  raise ex
-rescue =&gt; ex
-  p "error occure"
-end</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>times</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ensureで後処理を記述可能</t>
-    <rPh sb="7" eb="10">
-      <t>アトショリ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>rescue中にretryでbeginからやりなおすことが可能</t>
-    <rPh sb="6" eb="7">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>begin
-  x = 1 / x
-rescue =&gt; ex
-  p "x is 0"
-  x = 1
-  retry
-end</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>begin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  x = 1 / x</t>
-  </si>
-  <si>
-    <t>rescue =&gt; ex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p "x is 0"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  x = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  retry</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>構文</t>
-    <rPh sb="0" eb="2">
-      <t>コウブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メソッド</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>times</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指定回数繰り返す</t>
-    <rPh sb="0" eb="2">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>例：1：times</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>x.times do</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  p "do times method"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>end</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>例：2：timesブロック付</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ツキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>x.times do |i|</t>
-  </si>
-  <si>
-    <t>for</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>while</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>until</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>each</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>loop</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メソッド method</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指定範囲繰り返す</t>
-    <rPh sb="0" eb="2">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>for i in 1..5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p "do i count"</t>
-  </si>
-  <si>
-    <t>例：2：for配列</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハイレツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>例：1：for数字</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>スウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  p "do i"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>for i in ["a", "b", "c"]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>例：1：while</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>while x &lt; 5 do</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p "x is less than 5"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p "do ", i, " times method"</t>
-  </si>
-  <si>
-    <t>条件中繰り返す</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>条件以外の中繰り返す</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>例：1：until</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>until x &lt; 5 do</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  p "x is more than 5"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>until</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>each</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>loop</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>["a", "b", "c"].each do |i|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  p "do ", I, "\n"</t>
-  </si>
-  <si>
-    <t>例：1：each</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オブジェクトから取り出して繰り返す</t>
-    <rPh sb="8" eb="9">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>例：1：loop</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  p "do loop method"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>loop do</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>繰り返し、breakを使って繰り返しを中止する。</t>
-    <rPh sb="0" eb="1">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>チュウシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>breakで繰り返し中止、nextで次の繰り返し、redoで再度繰り返し</t>
-    <rPh sb="6" eb="7">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>チュウシ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>サイド</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>do 繰り返し処理 endか{繰り返し処理}で記述</t>
-    <rPh sb="3" eb="4">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>キジュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>複数行の場合do endで、1行の場合{}で記述することが推奨</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5.times do
-  p "do count"
-end
-x.times do |i|
-  p "do ", i, " times method"
-end
-# next, redo, break TODO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>for i in 1..5
-  p "do ", i, " count"
-end
-# next, redo, break TODO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>while x &lt; 5 do
-  p "x is less than 5"
-end
-# next, redo, break TODO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>until x &lt; 5 do
-  p "x is more than 5"
-end
-# next, redo, break TODO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>["a", "b", "c"].each do |i|
-  p "do ", I, "\n"
-end
-# next, redo, break TODO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>loop do
-  p "do loop method"
-end
-# next, redo, break TODO</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2039,10 +2061,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D45"/>
+  <dimension ref="A2:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2144,12 +2166,12 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.15">
@@ -2168,12 +2190,12 @@
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2255,6 +2277,11 @@
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2265,11 +2292,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M39"/>
+  <dimension ref="A2:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1350" topLeftCell="A7" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <pane ySplit="1350" topLeftCell="A19" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2277,7 +2304,7 @@
     <col min="1" max="6" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2288,7 +2315,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2319,8 +2346,11 @@
       <c r="M3">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -2361,8 +2391,11 @@
         <f>dictionary!$B45</f>
         <v>perl</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
         <f>dictionary!B3</f>
         <v xml:space="preserve">コーディングルール cording rule </v>
@@ -2372,7 +2405,7 @@
         <v>=</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="str">
         <f>dictionary!B4</f>
         <v>オブジェクト指向 objective</v>
@@ -2382,7 +2415,7 @@
         <v>=</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" t="str">
         <f>dictionary!B5</f>
         <v>数値</v>
@@ -2392,7 +2425,7 @@
         <v>=</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
         <f>dictionary!B6</f>
         <v>変数</v>
@@ -2402,7 +2435,7 @@
         <v>=</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
         <f>dictionary!B7</f>
         <v>条件 条件判定 分岐 if else else if elseif elsif elif switch case when</v>
@@ -2432,8 +2465,11 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B11" t="str">
         <f>dictionary!C8</f>
         <v>文 statement</v>
@@ -2463,8 +2499,11 @@
       <c r="M11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C12" t="str">
         <f>dictionary!D9</f>
         <v>if statement else else if elseif elsif</v>
@@ -2494,8 +2533,11 @@
       <c r="M12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C13" t="str">
         <f>dictionary!D10</f>
         <v>switch statement case when</v>
@@ -2511,7 +2553,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C14" t="str">
         <f>dictionary!D11</f>
         <v>?:</v>
@@ -2527,7 +2569,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B15" t="str">
         <f>dictionary!C12</f>
         <v>修飾子</v>
@@ -2543,7 +2585,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C16" t="str">
         <f>dictionary!D13</f>
         <v>if unless</v>
@@ -2559,7 +2601,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" t="str">
         <f>dictionary!B14</f>
         <v>繰り返し loop while foreach each　times</v>
@@ -2569,7 +2611,7 @@
         <v>=</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B18" t="str">
         <f>dictionary!C15</f>
         <v>文 statement</v>
@@ -2599,8 +2641,11 @@
       <c r="M18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C19" t="str">
         <f>dictionary!D16</f>
         <v>loop statement while foreach each　times</v>
@@ -2630,10 +2675,13 @@
       <c r="M19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
@@ -2643,7 +2691,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B21" t="str">
         <f>dictionary!C17</f>
         <v>修飾子</v>
@@ -2659,7 +2707,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C22" t="str">
         <f>dictionary!D18</f>
         <v>loop while foreach each　times</v>
@@ -2675,7 +2723,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" t="str">
         <f>dictionary!B19</f>
         <v>例外 exception</v>
@@ -2694,17 +2742,21 @@
         <v>36</v>
       </c>
       <c r="J23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B24" t="str">
         <f>dictionary!C20</f>
         <v>文 statement</v>
       </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>=</v>
+      </c>
       <c r="G24" t="s">
         <v>36</v>
       </c>
@@ -2715,46 +2767,58 @@
         <v>36</v>
       </c>
       <c r="J24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B25" t="str">
         <f>dictionary!C21</f>
         <v>後処理</v>
       </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>=</v>
+      </c>
       <c r="G25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B26" t="str">
         <f>dictionary!C22</f>
         <v>やりなおし</v>
       </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>=</v>
+      </c>
       <c r="G26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B27" t="str">
         <f>dictionary!C23</f>
         <v>修飾子</v>
       </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>=</v>
+      </c>
       <c r="G27" t="s">
         <v>36</v>
       </c>
       <c r="J27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" t="str">
         <f>dictionary!B24</f>
         <v>コメント comment</v>
@@ -2784,12 +2848,19 @@
       <c r="M28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B29" t="str">
         <f>dictionary!C25</f>
         <v>コメント</v>
       </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>=</v>
+      </c>
       <c r="G29" t="s">
         <v>36</v>
       </c>
@@ -2811,10 +2882,13 @@
       <c r="M29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B30" t="str">
-        <f>dictionary!C26</f>
+      <c r="N29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C30" t="str">
+        <f>dictionary!D26</f>
         <v>行末 コメント</v>
       </c>
       <c r="E30" t="str">
@@ -2842,10 +2916,13 @@
       <c r="M30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B31" t="str">
-        <f>dictionary!C27</f>
+      <c r="N30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C31" t="str">
+        <f>dictionary!D27</f>
         <v>複数行 範囲 コメント</v>
       </c>
       <c r="E31" t="str">
@@ -2871,7 +2948,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" t="str">
         <f>dictionary!B28</f>
         <v>入出力 入力 出力 標準入力 標準出力 標準エラー出力 エラー出力 input output stdin stdout stderr</v>
@@ -2881,7 +2958,7 @@
         <v>=</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B33" t="str">
         <f>dictionary!C29</f>
         <v>ファイル file</v>
@@ -2891,7 +2968,7 @@
         <v>=</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B34" t="str">
         <f>dictionary!C30</f>
         <v>ソケット 通信 socket</v>
@@ -2901,7 +2978,7 @@
         <v>=</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B35" t="str">
         <f>dictionary!C31</f>
         <v>http uri url</v>
@@ -2911,17 +2988,25 @@
         <v>=</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" t="str">
         <f>dictionary!B32</f>
         <v>インデント indent</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>=</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B37" t="str">
         <f>dictionary!C33</f>
         <v>indent block</v>
       </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>=</v>
+      </c>
       <c r="G37" t="s">
         <v>36</v>
       </c>
@@ -2943,8 +3028,11 @@
       <c r="M37" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" t="str">
         <f>dictionary!B34</f>
         <v>言語 マルチ言語 langurage multi langurages</v>
@@ -2954,7 +3042,7 @@
         <v>=</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B39" t="str">
         <f>dictionary!C35</f>
         <v>日本語 japan japanese</v>
@@ -2973,10 +3061,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K81"/>
+  <dimension ref="A2:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3061,16 +3149,16 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="108" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A13" t="str">
         <f>dictionary!B39</f>
         <v>ruby</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -3109,462 +3197,508 @@
         <v>perl</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D21" t="str">
+    <row r="20" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A20" t="str">
+        <f>dictionary!B46</f>
+        <v>vbs</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D22" t="str">
         <f>dictionary!C12</f>
         <v>修飾子</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F22" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F23" t="s">
         <v>133</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" t="str">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" t="str">
         <f>dictionary!B39</f>
         <v>ruby</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F24" t="s">
         <v>128</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G24" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" t="str">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" t="str">
         <f>dictionary!B40</f>
         <v>objective-c</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" t="str">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" t="str">
         <f>dictionary!B41</f>
         <v>c++</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" t="str">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" t="str">
         <f>dictionary!B42</f>
         <v>sh</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" t="str">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" t="str">
         <f>dictionary!B43</f>
         <v>bat</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" t="str">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" t="str">
         <f>dictionary!B44</f>
         <v>python</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" t="str">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" t="str">
         <f>dictionary!B45</f>
         <v>perl</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C31" t="str">
+      <c r="A31" t="str">
+        <f>dictionary!B46</f>
+        <v>vbs</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C33" t="str">
         <f>dictionary!B14</f>
         <v>繰り返し loop while foreach each　times</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D32" t="str">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D34" t="str">
         <f>dictionary!C15</f>
         <v>文 statement</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F33" t="s">
-        <v>160</v>
-      </c>
-      <c r="G33" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F35" t="s">
+        <v>159</v>
+      </c>
+      <c r="G35" t="s">
+        <v>180</v>
+      </c>
+      <c r="H35" t="s">
         <v>181</v>
       </c>
-      <c r="H33" t="s">
-        <v>182</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="I35" t="s">
+        <v>202</v>
+      </c>
+      <c r="J35" t="s">
         <v>203</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K35" t="s">
         <v>204</v>
       </c>
-      <c r="K33" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A34" t="str">
+    </row>
+    <row r="36" spans="1:11" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A36" t="str">
         <f>dictionary!B39</f>
         <v>ruby</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F36" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="K36" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="K34" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" t="str">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37" t="str">
         <f>dictionary!B40</f>
         <v>objective-c</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" t="str">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38" t="str">
         <f>dictionary!B41</f>
         <v>c++</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37" t="str">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A39" t="str">
         <f>dictionary!B42</f>
         <v>sh</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" t="str">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40" t="str">
         <f>dictionary!B43</f>
         <v>bat</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A39" t="str">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41" t="str">
         <f>dictionary!B44</f>
         <v>python</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A40" t="str">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42" t="str">
         <f>dictionary!B45</f>
         <v>perl</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D42" t="str">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43" t="str">
+        <f>dictionary!B46</f>
+        <v>vbs</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D45" t="str">
         <f>dictionary!C17</f>
         <v>修飾子</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C43" t="str">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C46" t="str">
         <f>dictionary!B19</f>
         <v>例外 exception</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D44" t="str">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D47" t="str">
         <f>dictionary!C20</f>
         <v>文 statement</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F45" t="s">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F48" t="s">
+        <v>137</v>
+      </c>
+      <c r="G48" t="s">
+        <v>157</v>
+      </c>
+      <c r="H48" t="s">
+        <v>156</v>
+      </c>
+      <c r="I48" t="s">
         <v>138</v>
       </c>
-      <c r="G45" t="s">
-        <v>158</v>
-      </c>
-      <c r="H45" t="s">
-        <v>157</v>
-      </c>
-      <c r="I45" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A46" t="str">
+    </row>
+    <row r="49" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A49" t="str">
         <f>dictionary!B39</f>
         <v>ruby</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" t="str">
+      <c r="F49" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50" t="str">
         <f>dictionary!B40</f>
         <v>objective-c</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" t="str">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51" t="str">
         <f>dictionary!B41</f>
         <v>c++</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" t="str">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52" t="str">
         <f>dictionary!B42</f>
         <v>sh</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" t="str">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53" t="str">
         <f>dictionary!B43</f>
         <v>bat</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" t="str">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" t="str">
         <f>dictionary!B44</f>
         <v>python</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" t="str">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55" t="str">
         <f>dictionary!B45</f>
         <v>perl</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D54" t="str">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56" t="str">
+        <f>dictionary!B46</f>
+        <v>vbs</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D58" t="str">
         <f>dictionary!C23</f>
         <v>修飾子</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F55" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" t="str">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F59" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60" t="str">
         <f>dictionary!B39</f>
         <v>ruby</v>
       </c>
-      <c r="F56" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" t="str">
+      <c r="F60" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61" t="str">
         <f>dictionary!B40</f>
         <v>objective-c</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" t="str">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A62" t="str">
         <f>dictionary!B41</f>
         <v>c++</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" t="str">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A63" t="str">
         <f>dictionary!B42</f>
         <v>sh</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" t="str">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A64" t="str">
         <f>dictionary!B43</f>
         <v>bat</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" t="str">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" t="str">
         <f>dictionary!B44</f>
         <v>python</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" t="str">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" t="str">
         <f>dictionary!B45</f>
         <v>perl</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C64" t="str">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" t="str">
+        <f>dictionary!B46</f>
+        <v>vbs</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C69" t="str">
         <f>dictionary!B24</f>
         <v>コメント comment</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F65" t="str">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F70" t="str">
         <f>dictionary!$C25</f>
         <v>コメント</v>
       </c>
-      <c r="G65" t="str">
-        <f>dictionary!$C26</f>
+      <c r="G70" t="str">
+        <f>dictionary!$D26</f>
         <v>行末 コメント</v>
       </c>
-      <c r="H65" t="str">
-        <f>dictionary!$C27</f>
+      <c r="H70" t="str">
+        <f>dictionary!$D27</f>
         <v>複数行 範囲 コメント</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A66" t="str">
+    <row r="71" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A71" t="str">
         <f>dictionary!B39</f>
         <v>ruby</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F71" t="s">
         <v>106</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G71" t="s">
         <v>117</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="H71" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A67" t="str">
+    <row r="72" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A72" t="str">
         <f>dictionary!B40</f>
         <v>objective-c</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="H72" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A68" t="str">
+    <row r="73" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A73" t="str">
         <f>dictionary!B41</f>
         <v>c++</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="H73" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A69" t="str">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" t="str">
         <f>dictionary!B42</f>
         <v>sh</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F74" t="s">
         <v>106</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G74" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A70" t="str">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75" t="str">
         <f>dictionary!B43</f>
         <v>bat</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F75" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="81" x14ac:dyDescent="0.15">
-      <c r="A71" t="str">
+    <row r="76" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+      <c r="A76" t="str">
         <f>dictionary!B44</f>
         <v>python</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F76" t="s">
         <v>106</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G76" t="s">
         <v>117</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="H76" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A72" t="str">
+    <row r="77" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A77" t="str">
         <f>dictionary!B45</f>
         <v>perl</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F77" t="s">
         <v>106</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G77" t="s">
         <v>120</v>
       </c>
-      <c r="H72" s="3" t="s">
+      <c r="H77" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C74" t="str">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78" t="str">
+        <f>dictionary!B46</f>
+        <v>vbs</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H78" s="3"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C80" t="str">
         <f>dictionary!B28</f>
         <v>入出力 入力 出力 標準入力 標準出力 標準エラー出力 エラー出力 input output stdin stdout stderr</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D75" t="str">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D81" t="str">
         <f>dictionary!C29</f>
         <v>ファイル file</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D76" t="str">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D82" t="str">
         <f>dictionary!C30</f>
         <v>ソケット 通信 socket</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D77" t="str">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D83" t="str">
         <f>dictionary!C31</f>
         <v>http uri url</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C78" t="str">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C84" t="str">
         <f>dictionary!B32</f>
         <v>インデント indent</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D79" t="str">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D85" t="str">
         <f>dictionary!C33</f>
         <v>indent block</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C80" t="str">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C86" t="str">
         <f>dictionary!B34</f>
         <v>言語 マルチ言語 langurage multi langurages</v>
       </c>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D81" t="str">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D87" t="str">
         <f>dictionary!C35</f>
         <v>日本語 japan japanese</v>
       </c>
@@ -3719,13 +3853,13 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B24" t="str">
-        <f>dictionary!C26</f>
+        <f>dictionary!D26</f>
         <v>行末 コメント</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B25" t="str">
-        <f>dictionary!C27</f>
+        <f>dictionary!D27</f>
         <v>複数行 範囲 コメント</v>
       </c>
     </row>
@@ -3789,7 +3923,7 @@
   <dimension ref="A2:H191"/>
   <sheetViews>
     <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="G133" sqref="G133:G135"/>
+      <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4161,322 +4295,322 @@
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E73" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F74" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F75" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F76" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F78" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.15">
       <c r="G79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.15">
       <c r="G80" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="5:7" x14ac:dyDescent="0.15">
       <c r="G81" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F82" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="83" spans="5:7" x14ac:dyDescent="0.15">
       <c r="G83" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84" spans="5:7" x14ac:dyDescent="0.15">
       <c r="G84" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85" spans="5:7" x14ac:dyDescent="0.15">
       <c r="G85" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F88" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="89" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F89" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F91" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="92" spans="5:7" x14ac:dyDescent="0.15">
       <c r="G92" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="93" spans="5:7" x14ac:dyDescent="0.15">
       <c r="G93" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94" spans="5:7" x14ac:dyDescent="0.15">
       <c r="G94" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="95" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E95" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="96" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F96" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F97" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F98" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="99" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="100" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F100" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="4:7" x14ac:dyDescent="0.15">
       <c r="G101" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="4:7" x14ac:dyDescent="0.15">
       <c r="G102" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103" spans="4:7" x14ac:dyDescent="0.15">
       <c r="G103" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D104" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="105" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E105" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="106" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F106" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="107" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F107" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F108" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="109" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F109" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="110" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F110" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="111" spans="4:7" x14ac:dyDescent="0.15">
       <c r="G111" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="112" spans="4:7" x14ac:dyDescent="0.15">
       <c r="G112" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="5:7" x14ac:dyDescent="0.15">
       <c r="G113" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="114" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F114" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="115" spans="5:7" x14ac:dyDescent="0.15">
       <c r="G115" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="116" spans="5:7" x14ac:dyDescent="0.15">
       <c r="G116" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="117" spans="5:7" x14ac:dyDescent="0.15">
       <c r="G117" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E118" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="119" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F119" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="120" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F120" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="121" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F121" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="122" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F122" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="123" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F123" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="124" spans="5:7" x14ac:dyDescent="0.15">
       <c r="G124" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="125" spans="5:7" x14ac:dyDescent="0.15">
       <c r="G125" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="126" spans="5:7" x14ac:dyDescent="0.15">
       <c r="G126" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="127" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E127" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="128" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F128" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F129" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F130" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F131" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F132" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.15">
       <c r="G133" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.15">
       <c r="G134" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.15">
       <c r="G135" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.15">
@@ -4505,47 +4639,47 @@
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D141" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D142" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E143" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E144" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="145" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E145" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="146" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E146" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="147" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E147" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="148" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E148" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="149" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E149" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="3:5" x14ac:dyDescent="0.15">
@@ -4556,7 +4690,7 @@
     </row>
     <row r="151" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D151" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="152" spans="3:5" x14ac:dyDescent="0.15">
@@ -4567,42 +4701,42 @@
     </row>
     <row r="153" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D153" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="154" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E154" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="155" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E155" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="156" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E156" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="157" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E157" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="158" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E158" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E159" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="160" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E160" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.15">
@@ -4613,17 +4747,17 @@
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D162" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D163" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E164" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.15">
@@ -4655,7 +4789,7 @@
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C171" t="str">
-        <f>dictionary!C26</f>
+        <f>dictionary!D26</f>
         <v>行末 コメント</v>
       </c>
     </row>
@@ -4676,7 +4810,7 @@
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C175" t="str">
-        <f>dictionary!C27</f>
+        <f>dictionary!D27</f>
         <v>複数行 範囲 コメント</v>
       </c>
     </row>
